--- a/master_BIN.xlsx
+++ b/master_BIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="0" windowWidth="17085" windowHeight="10710"/>
+    <workbookView xWindow="6915" yWindow="0" windowWidth="17085" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="155">
   <si>
     <t>CardName</t>
   </si>
@@ -116,13 +116,376 @@
   </si>
   <si>
     <t>Citi Axess Mastercard Platinum</t>
+  </si>
+  <si>
+    <t>Garanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARANTI MAGAZA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER  BONUS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER  GBKK    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA    SM      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA    BONUS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA    KONTOR  </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARANTI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER  SM      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA    GBKK    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA    SANAL   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA    BNSTK   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA    SMTK    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER  BNSTK   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER  ORTAK   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER  SANAL   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER  KONTOR  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER  PG      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARANTI GECICI  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARANTI YKM     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARANTI MAXI    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARANTI LCW     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER  GBDK    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMEX    AMEXE   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMEX    AMEXG   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMEX    AMEXP   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMEX    AMXBE   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMEX    AMXBG   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMEX    BONUS   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMEX    AMEX Blue Gold   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMEX    AMEX Blue Platinium    </t>
+  </si>
+  <si>
+    <t>AMEX    SMAXPLTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMEX    AMEX Blue Prive    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA    EKINBNS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARANTI HEDIYE  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA    MINI    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER  SMCLUB  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA    SMCLUB  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISA    FLEXI   </t>
+  </si>
+  <si>
+    <t>VISA    MONEYCARD</t>
+  </si>
+  <si>
+    <t>VISA    ALTIN BONUS</t>
+  </si>
+  <si>
+    <t>MASTER  Shopandmiles Business</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>VISA    BONUS PLUS OCEAN</t>
+  </si>
+  <si>
+    <t>VISA    PASO BONUS CLASSIC</t>
+  </si>
+  <si>
+    <t>VISA    IDO BONUS GOLD</t>
+  </si>
+  <si>
+    <t>VISA    BONUS PLATINIUM</t>
+  </si>
+  <si>
+    <t>MASTER  BONUS EM/MC CLASSIC OCEAN</t>
+  </si>
+  <si>
+    <t>VISAPREPAID</t>
+  </si>
+  <si>
+    <t>MASTERPARACARD</t>
+  </si>
+  <si>
+    <t>MASTERPREPAID</t>
+  </si>
+  <si>
+    <t>GARANTIPREPAID</t>
+  </si>
+  <si>
+    <t>MASTERPG</t>
+  </si>
+  <si>
+    <t>GARANTIPG</t>
+  </si>
+  <si>
+    <t>GARANTIMAGAZA</t>
+  </si>
+  <si>
+    <t>Denizbank</t>
+  </si>
+  <si>
+    <t>MasterCard Bonus Sanal Denizbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MasterCard Bonus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visa Bonus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MasterCard Bonus Business </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visa Bonus Plus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visa Bonus Premium </t>
+  </si>
+  <si>
+    <t>Visa – IDO BONUS GOLD</t>
+  </si>
+  <si>
+    <t>Visa – BONUS PLATINUM</t>
+  </si>
+  <si>
+    <t>520303 </t>
+  </si>
+  <si>
+    <t>520019  </t>
+  </si>
+  <si>
+    <t>424361 </t>
+  </si>
+  <si>
+    <t>TEB</t>
+  </si>
+  <si>
+    <t>406015</t>
+  </si>
+  <si>
+    <t>Visa Bonus TEB</t>
+  </si>
+  <si>
+    <t>Visa Bonus Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MasterCard Bonus Plus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MasterCard Bonus Premium </t>
+  </si>
+  <si>
+    <t>MasterCard Bonus Platinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MasterCard Bonus Sanal </t>
+  </si>
+  <si>
+    <t>MasterCard-World Signia</t>
+  </si>
+  <si>
+    <t>VISA Bonus Sanal</t>
+  </si>
+  <si>
+    <t>MasterCard Gold</t>
+  </si>
+  <si>
+    <t>MasterCard Platinum</t>
+  </si>
+  <si>
+    <t>Visa Bonus Platinum</t>
+  </si>
+  <si>
+    <t>Visa Bonus Business Platinum</t>
+  </si>
+  <si>
+    <t>Visa Bonus Business Standart</t>
+  </si>
+  <si>
+    <t>Şekerbank</t>
+  </si>
+  <si>
+    <t>Visa Bonus ClassicŞekerbank</t>
+  </si>
+  <si>
+    <t>Visa Bonus Gold</t>
+  </si>
+  <si>
+    <t>Visa Bonus Business</t>
+  </si>
+  <si>
+    <t>MasterCard Bonus Standart</t>
+  </si>
+  <si>
+    <t>MasterCard Bonus Gold</t>
+  </si>
+  <si>
+    <t>ING</t>
+  </si>
+  <si>
+    <t>VISAING</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>MASTER </t>
+  </si>
+  <si>
+    <t>420324 </t>
+  </si>
+  <si>
+    <t>408579 </t>
+  </si>
+  <si>
+    <t>510151</t>
+  </si>
+  <si>
+    <t>532443 </t>
+  </si>
+  <si>
+    <t>542967  </t>
+  </si>
+  <si>
+    <t>Türkiye Finans</t>
+  </si>
+  <si>
+    <t>MASTER Türkiye Finans</t>
+  </si>
+  <si>
+    <t>GS Bonus</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
+  </si>
+  <si>
+    <t>Denizbank GS Bonus</t>
+  </si>
+  <si>
+    <t>498516      </t>
+  </si>
+  <si>
+    <t>498517      </t>
+  </si>
+  <si>
+    <t>498518      </t>
+  </si>
+  <si>
+    <t>498519      </t>
+  </si>
+  <si>
+    <t>498520      </t>
+  </si>
+  <si>
+    <t>EBTBONUS    </t>
+  </si>
+  <si>
+    <t>VISA       EBTBONUS    </t>
+  </si>
+  <si>
+    <t>VISA       </t>
+  </si>
+  <si>
+    <t>Visa Ortak Kart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMEX    BNSCMP  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMEX    AMEXB   </t>
+  </si>
+  <si>
+    <t>VISA    PARACARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER  FLEXI   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,10 +503,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,11 +576,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,19 +923,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -494,16 +946,19 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -513,16 +968,17 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>413252</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -532,16 +988,17 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>435508</v>
       </c>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -551,16 +1008,17 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>435509</v>
       </c>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -570,16 +1028,17 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>432071</v>
       </c>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -589,16 +1048,17 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>432072</v>
       </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -608,16 +1068,17 @@
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>512754</v>
       </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -627,16 +1088,17 @@
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>524347</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -646,16 +1108,17 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>425669</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -665,16 +1128,17 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>553056</v>
       </c>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -684,16 +1148,17 @@
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>557113</v>
       </c>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -703,16 +1168,17 @@
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>520932</v>
       </c>
-      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -722,16 +1188,17 @@
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>557829</v>
       </c>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,16 +1208,17 @@
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>521807</v>
       </c>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,16 +1228,17 @@
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>552608</v>
       </c>
-      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,16 +1248,17 @@
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>552609</v>
       </c>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -798,16 +1268,17 @@
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>450050</v>
       </c>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,16 +1288,17 @@
       <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>450051</v>
       </c>
-      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -836,16 +1308,17 @@
       <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>450151</v>
       </c>
-      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,16 +1328,17 @@
       <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>549220</v>
       </c>
-      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -874,16 +1348,17 @@
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>544127</v>
       </c>
-      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -893,16 +1368,17 @@
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>521376</v>
       </c>
-      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -912,16 +1388,17 @@
       <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>450052</v>
       </c>
-      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -931,16 +1408,17 @@
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>531245</v>
       </c>
-      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -950,16 +1428,17 @@
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>547161</v>
       </c>
-      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -969,14 +1448,3340 @@
       <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>589004</v>
       </c>
-      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="5">
+        <v>605036</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5">
+        <v>540669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5">
+        <v>520922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5">
+        <v>544294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="5">
+        <v>540709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="5">
+        <v>474151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5">
+        <v>487074</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="5">
+        <v>487075</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="5">
+        <v>426889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="5">
+        <v>426886</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="5">
+        <v>426887</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5">
+        <v>426888</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="5">
+        <v>420557</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="5">
+        <v>420556</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="5">
+        <v>404308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="5">
+        <v>528939</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="5">
+        <v>520988</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="5">
+        <v>520940</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="5">
+        <v>534261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="5">
+        <v>401738</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="5">
+        <v>403666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="5">
+        <v>403280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="5">
+        <v>427315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="5">
+        <v>427314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="5">
+        <v>448472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="5">
+        <v>428968</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="5">
+        <v>428967</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="5">
+        <v>490175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" s="5">
+        <v>467295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="5">
+        <v>467294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="5">
+        <v>467293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="5">
+        <v>461668</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="5">
+        <v>493845</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="5">
+        <v>492193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" s="5">
+        <v>492187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" s="5">
+        <v>492186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="5">
+        <v>540037</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="5">
+        <v>540036</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" s="5">
+        <v>540227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="5">
+        <v>540226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="5">
+        <v>542030</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68" s="5">
+        <v>545102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69" s="5">
+        <v>544078</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" s="5">
+        <v>552095</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" s="5">
+        <v>558699</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72" s="5">
+        <v>554796</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F73" s="5">
+        <v>557023</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" t="s">
+        <v>42</v>
+      </c>
+      <c r="F74" s="5">
+        <v>554960</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="5">
+        <v>589318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" t="s">
+        <v>42</v>
+      </c>
+      <c r="F76" s="5">
+        <v>541858</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77" s="5">
+        <v>479324</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" t="s">
+        <v>42</v>
+      </c>
+      <c r="F78" s="5">
+        <v>479323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" t="s">
+        <v>42</v>
+      </c>
+      <c r="F79" s="5">
+        <v>603614</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="5">
+        <v>603492</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="5">
+        <v>603480</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="5">
+        <v>642010</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="5">
+        <v>642011</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="5">
+        <v>676283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="5">
+        <v>676255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="5">
+        <v>676827</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" t="s">
+        <v>42</v>
+      </c>
+      <c r="F87" s="5">
+        <v>375622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88" t="s">
+        <v>42</v>
+      </c>
+      <c r="F88" s="5">
+        <v>375623</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" t="s">
+        <v>42</v>
+      </c>
+      <c r="F89" s="5">
+        <v>375624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F90" s="5">
+        <v>375625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E91" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91" s="5">
+        <v>375626</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" t="s">
+        <v>67</v>
+      </c>
+      <c r="E92" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" s="5">
+        <v>375627</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E93" t="s">
+        <v>42</v>
+      </c>
+      <c r="F93" s="5">
+        <v>375628</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" t="s">
+        <v>42</v>
+      </c>
+      <c r="F94" s="5">
+        <v>375629</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" t="s">
+        <v>70</v>
+      </c>
+      <c r="E95" t="s">
+        <v>42</v>
+      </c>
+      <c r="F95" s="7">
+        <v>374422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" t="s">
+        <v>71</v>
+      </c>
+      <c r="E96" t="s">
+        <v>42</v>
+      </c>
+      <c r="F96" s="5">
+        <v>374424</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" t="s">
+        <v>72</v>
+      </c>
+      <c r="E97" t="s">
+        <v>42</v>
+      </c>
+      <c r="F97" s="5">
+        <v>462274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" t="s">
+        <v>73</v>
+      </c>
+      <c r="E98" t="s">
+        <v>41</v>
+      </c>
+      <c r="F98" s="5">
+        <v>602970</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" t="s">
+        <v>40</v>
+      </c>
+      <c r="E99" t="s">
+        <v>41</v>
+      </c>
+      <c r="F99" s="5">
+        <v>405051</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" t="s">
+        <v>74</v>
+      </c>
+      <c r="E100" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100" s="5">
+        <v>724365</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" t="s">
+        <v>47</v>
+      </c>
+      <c r="E101" t="s">
+        <v>42</v>
+      </c>
+      <c r="F101" s="7">
+        <v>514915</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102" t="s">
+        <v>75</v>
+      </c>
+      <c r="E102" t="s">
+        <v>42</v>
+      </c>
+      <c r="F102" s="5">
+        <v>521824</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" t="s">
+        <v>75</v>
+      </c>
+      <c r="E103" t="s">
+        <v>42</v>
+      </c>
+      <c r="F103" s="5">
+        <v>521825</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" t="s">
+        <v>47</v>
+      </c>
+      <c r="E104" t="s">
+        <v>42</v>
+      </c>
+      <c r="F104" s="5">
+        <v>521832</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" t="s">
+        <v>40</v>
+      </c>
+      <c r="E105" t="s">
+        <v>41</v>
+      </c>
+      <c r="F105" s="5">
+        <v>410141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" t="s">
+        <v>76</v>
+      </c>
+      <c r="E106" t="s">
+        <v>42</v>
+      </c>
+      <c r="F106" s="5">
+        <v>413836</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" t="s">
+        <v>40</v>
+      </c>
+      <c r="E107" t="s">
+        <v>41</v>
+      </c>
+      <c r="F107" s="5">
+        <v>405090</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E108" t="s">
+        <v>42</v>
+      </c>
+      <c r="F108" s="5">
+        <v>553130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" t="s">
+        <v>77</v>
+      </c>
+      <c r="E109" t="s">
+        <v>42</v>
+      </c>
+      <c r="F109" s="5">
+        <v>428220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" t="s">
+        <v>77</v>
+      </c>
+      <c r="E110" t="s">
+        <v>42</v>
+      </c>
+      <c r="F110" s="5">
+        <v>428221</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" t="s">
+        <v>78</v>
+      </c>
+      <c r="E111" t="s">
+        <v>42</v>
+      </c>
+      <c r="F111" s="5">
+        <v>482489</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" t="s">
+        <v>78</v>
+      </c>
+      <c r="E112" t="s">
+        <v>42</v>
+      </c>
+      <c r="F112" s="5">
+        <v>482490</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" t="s">
+        <v>78</v>
+      </c>
+      <c r="E113" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" s="5">
+        <v>482491</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C114" t="s">
+        <v>79</v>
+      </c>
+      <c r="E114" t="s">
+        <v>42</v>
+      </c>
+      <c r="F114" s="5">
+        <v>489478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" t="s">
+        <v>80</v>
+      </c>
+      <c r="E115" t="s">
+        <v>42</v>
+      </c>
+      <c r="F115" s="8">
+        <v>533169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" t="s">
+        <v>83</v>
+      </c>
+      <c r="E116" t="s">
+        <v>42</v>
+      </c>
+      <c r="F116" s="9">
+        <v>472914</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" t="s">
+        <v>84</v>
+      </c>
+      <c r="E117" t="s">
+        <v>42</v>
+      </c>
+      <c r="F117" s="9">
+        <v>489456</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E118" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118" s="9">
+        <v>489457</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" t="s">
+        <v>86</v>
+      </c>
+      <c r="E119" t="s">
+        <v>42</v>
+      </c>
+      <c r="F119" s="9">
+        <v>489458</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" t="s">
+        <v>87</v>
+      </c>
+      <c r="E120" t="s">
+        <v>42</v>
+      </c>
+      <c r="F120" s="9">
+        <v>546764</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" t="s">
+        <v>88</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F121" s="10">
+        <v>409219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" t="s">
+        <v>89</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F122" s="10">
+        <v>517040</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" t="s">
+        <v>89</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F123" s="10">
+        <v>517041</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" t="s">
+        <v>90</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F124" s="10">
+        <v>517042</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" t="s">
+        <v>90</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F125" s="10">
+        <v>517048</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126" t="s">
+        <v>90</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F126" s="10">
+        <v>517049</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" t="s">
+        <v>91</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F127" s="10">
+        <v>600208</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" t="s">
+        <v>90</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F128" s="10">
+        <v>670606</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129" t="s">
+        <v>89</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F129" s="10">
+        <v>676651</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" t="s">
+        <v>92</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F130" s="10">
+        <v>603614</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" t="s">
+        <v>93</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F131" s="10">
+        <v>642012</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" t="s">
+        <v>94</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F132" s="10">
+        <v>605036</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C133" t="s">
+        <v>96</v>
+      </c>
+      <c r="E133" t="s">
+        <v>42</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C134" t="s">
+        <v>97</v>
+      </c>
+      <c r="E134" t="s">
+        <v>42</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C135" t="s">
+        <v>98</v>
+      </c>
+      <c r="E135" t="s">
+        <v>42</v>
+      </c>
+      <c r="F135" s="12">
+        <v>409070</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C136" t="s">
+        <v>99</v>
+      </c>
+      <c r="E136" t="s">
+        <v>42</v>
+      </c>
+      <c r="F136" s="12">
+        <v>510118</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C137" t="s">
+        <v>100</v>
+      </c>
+      <c r="E137" t="s">
+        <v>42</v>
+      </c>
+      <c r="F137" s="12">
+        <v>424360</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C138" t="s">
+        <v>101</v>
+      </c>
+      <c r="E138" t="s">
+        <v>42</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C139" t="s">
+        <v>102</v>
+      </c>
+      <c r="E139" t="s">
+        <v>42</v>
+      </c>
+      <c r="F139" s="13">
+        <v>489457</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C140" t="s">
+        <v>103</v>
+      </c>
+      <c r="E140" t="s">
+        <v>42</v>
+      </c>
+      <c r="F140" s="13">
+        <v>489458</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C141" t="s">
+        <v>109</v>
+      </c>
+      <c r="E141" t="s">
+        <v>42</v>
+      </c>
+      <c r="F141" s="12">
+        <v>440293</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>34</v>
+      </c>
+      <c r="B142" t="s">
+        <v>107</v>
+      </c>
+      <c r="C142" t="s">
+        <v>100</v>
+      </c>
+      <c r="E142" t="s">
+        <v>42</v>
+      </c>
+      <c r="F142" s="12">
+        <v>402458</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B143" t="s">
+        <v>107</v>
+      </c>
+      <c r="C143" t="s">
+        <v>101</v>
+      </c>
+      <c r="E143" t="s">
+        <v>42</v>
+      </c>
+      <c r="F143" s="12">
+        <v>402459</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>34</v>
+      </c>
+      <c r="B144" t="s">
+        <v>107</v>
+      </c>
+      <c r="C144" t="s">
+        <v>110</v>
+      </c>
+      <c r="E144" t="s">
+        <v>42</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>34</v>
+      </c>
+      <c r="B145" t="s">
+        <v>107</v>
+      </c>
+      <c r="C145" t="s">
+        <v>97</v>
+      </c>
+      <c r="E145" t="s">
+        <v>42</v>
+      </c>
+      <c r="F145" s="12">
+        <v>512803</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>34</v>
+      </c>
+      <c r="B146" t="s">
+        <v>107</v>
+      </c>
+      <c r="C146" t="s">
+        <v>111</v>
+      </c>
+      <c r="E146" t="s">
+        <v>42</v>
+      </c>
+      <c r="F146" s="12">
+        <v>524839</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>34</v>
+      </c>
+      <c r="B147" t="s">
+        <v>107</v>
+      </c>
+      <c r="C147" t="s">
+        <v>112</v>
+      </c>
+      <c r="E147" t="s">
+        <v>42</v>
+      </c>
+      <c r="F147" s="12">
+        <v>524840</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>34</v>
+      </c>
+      <c r="B148" t="s">
+        <v>107</v>
+      </c>
+      <c r="C148" t="s">
+        <v>113</v>
+      </c>
+      <c r="E148" t="s">
+        <v>42</v>
+      </c>
+      <c r="F148" s="12">
+        <v>528920</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>34</v>
+      </c>
+      <c r="B149" t="s">
+        <v>107</v>
+      </c>
+      <c r="C149" t="s">
+        <v>114</v>
+      </c>
+      <c r="E149" t="s">
+        <v>42</v>
+      </c>
+      <c r="F149" s="12">
+        <v>510221</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>34</v>
+      </c>
+      <c r="B150" t="s">
+        <v>107</v>
+      </c>
+      <c r="C150" t="s">
+        <v>99</v>
+      </c>
+      <c r="E150" t="s">
+        <v>42</v>
+      </c>
+      <c r="F150" s="12">
+        <v>553090</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>34</v>
+      </c>
+      <c r="B151" t="s">
+        <v>107</v>
+      </c>
+      <c r="C151" t="s">
+        <v>115</v>
+      </c>
+      <c r="E151" t="s">
+        <v>42</v>
+      </c>
+      <c r="F151" s="14">
+        <v>545124</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>34</v>
+      </c>
+      <c r="B152" t="s">
+        <v>107</v>
+      </c>
+      <c r="C152" t="s">
+        <v>116</v>
+      </c>
+      <c r="E152" t="s">
+        <v>42</v>
+      </c>
+      <c r="F152" s="9">
+        <v>489494</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>34</v>
+      </c>
+      <c r="B153" t="s">
+        <v>107</v>
+      </c>
+      <c r="C153" t="s">
+        <v>117</v>
+      </c>
+      <c r="E153" t="s">
+        <v>42</v>
+      </c>
+      <c r="F153" s="9">
+        <v>512753</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>34</v>
+      </c>
+      <c r="B154" t="s">
+        <v>107</v>
+      </c>
+      <c r="C154" t="s">
+        <v>118</v>
+      </c>
+      <c r="E154" t="s">
+        <v>42</v>
+      </c>
+      <c r="F154" s="9">
+        <v>524346</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>34</v>
+      </c>
+      <c r="B155" t="s">
+        <v>107</v>
+      </c>
+      <c r="C155" t="s">
+        <v>97</v>
+      </c>
+      <c r="E155" t="s">
+        <v>42</v>
+      </c>
+      <c r="F155" s="9">
+        <v>530853</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" t="s">
+        <v>107</v>
+      </c>
+      <c r="C156" t="s">
+        <v>119</v>
+      </c>
+      <c r="E156" t="s">
+        <v>42</v>
+      </c>
+      <c r="F156" s="9">
+        <v>489495</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>34</v>
+      </c>
+      <c r="B157" t="s">
+        <v>107</v>
+      </c>
+      <c r="C157" t="s">
+        <v>120</v>
+      </c>
+      <c r="E157" t="s">
+        <v>42</v>
+      </c>
+      <c r="F157" s="9">
+        <v>489496</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>34</v>
+      </c>
+      <c r="B158" t="s">
+        <v>107</v>
+      </c>
+      <c r="C158" t="s">
+        <v>121</v>
+      </c>
+      <c r="E158" t="s">
+        <v>42</v>
+      </c>
+      <c r="F158" s="9">
+        <v>459026</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>34</v>
+      </c>
+      <c r="B159" t="s">
+        <v>122</v>
+      </c>
+      <c r="C159" t="s">
+        <v>123</v>
+      </c>
+      <c r="E159" t="s">
+        <v>42</v>
+      </c>
+      <c r="F159" s="15">
+        <v>411156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>34</v>
+      </c>
+      <c r="B160" t="s">
+        <v>122</v>
+      </c>
+      <c r="C160" t="s">
+        <v>124</v>
+      </c>
+      <c r="E160" t="s">
+        <v>42</v>
+      </c>
+      <c r="F160" s="15">
+        <v>411157</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>34</v>
+      </c>
+      <c r="B161" t="s">
+        <v>122</v>
+      </c>
+      <c r="C161" t="s">
+        <v>119</v>
+      </c>
+      <c r="E161" t="s">
+        <v>42</v>
+      </c>
+      <c r="F161" s="15">
+        <v>411158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>34</v>
+      </c>
+      <c r="B162" t="s">
+        <v>122</v>
+      </c>
+      <c r="C162" t="s">
+        <v>125</v>
+      </c>
+      <c r="E162" t="s">
+        <v>42</v>
+      </c>
+      <c r="F162" s="15">
+        <v>411159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>34</v>
+      </c>
+      <c r="B163" t="s">
+        <v>122</v>
+      </c>
+      <c r="C163" t="s">
+        <v>126</v>
+      </c>
+      <c r="E163" t="s">
+        <v>42</v>
+      </c>
+      <c r="F163" s="15">
+        <v>549208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>34</v>
+      </c>
+      <c r="B164" t="s">
+        <v>122</v>
+      </c>
+      <c r="C164" t="s">
+        <v>127</v>
+      </c>
+      <c r="E164" t="s">
+        <v>42</v>
+      </c>
+      <c r="F164" s="15">
+        <v>530866</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>34</v>
+      </c>
+      <c r="B165" t="s">
+        <v>122</v>
+      </c>
+      <c r="C165" t="s">
+        <v>113</v>
+      </c>
+      <c r="E165" t="s">
+        <v>42</v>
+      </c>
+      <c r="F165" s="15">
+        <v>521394</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>34</v>
+      </c>
+      <c r="B166" t="s">
+        <v>122</v>
+      </c>
+      <c r="C166" t="s">
+        <v>99</v>
+      </c>
+      <c r="E166" t="s">
+        <v>42</v>
+      </c>
+      <c r="F166" s="15">
+        <v>547311</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>34</v>
+      </c>
+      <c r="B167" t="s">
+        <v>128</v>
+      </c>
+      <c r="C167" t="s">
+        <v>129</v>
+      </c>
+      <c r="E167" t="s">
+        <v>42</v>
+      </c>
+      <c r="F167" s="16">
+        <v>420322</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>34</v>
+      </c>
+      <c r="B168" t="s">
+        <v>128</v>
+      </c>
+      <c r="C168" t="s">
+        <v>130</v>
+      </c>
+      <c r="E168" t="s">
+        <v>42</v>
+      </c>
+      <c r="F168" s="16">
+        <v>420323</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>34</v>
+      </c>
+      <c r="B169" t="s">
+        <v>128</v>
+      </c>
+      <c r="C169" t="s">
+        <v>130</v>
+      </c>
+      <c r="E169" t="s">
+        <v>42</v>
+      </c>
+      <c r="F169" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>34</v>
+      </c>
+      <c r="B170" t="s">
+        <v>128</v>
+      </c>
+      <c r="C170" t="s">
+        <v>130</v>
+      </c>
+      <c r="E170" t="s">
+        <v>42</v>
+      </c>
+      <c r="F170" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>34</v>
+      </c>
+      <c r="B171" t="s">
+        <v>128</v>
+      </c>
+      <c r="C171" t="s">
+        <v>130</v>
+      </c>
+      <c r="E171" t="s">
+        <v>42</v>
+      </c>
+      <c r="F171" s="16">
+        <v>480296</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>34</v>
+      </c>
+      <c r="B172" t="s">
+        <v>128</v>
+      </c>
+      <c r="C172" t="s">
+        <v>130</v>
+      </c>
+      <c r="E172" t="s">
+        <v>42</v>
+      </c>
+      <c r="F172" s="16">
+        <v>400684</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>34</v>
+      </c>
+      <c r="B173" t="s">
+        <v>128</v>
+      </c>
+      <c r="C173" t="s">
+        <v>131</v>
+      </c>
+      <c r="E173" t="s">
+        <v>42</v>
+      </c>
+      <c r="F173" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>34</v>
+      </c>
+      <c r="B174" t="s">
+        <v>128</v>
+      </c>
+      <c r="C174" t="s">
+        <v>131</v>
+      </c>
+      <c r="E174" t="s">
+        <v>42</v>
+      </c>
+      <c r="F174" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>34</v>
+      </c>
+      <c r="B175" t="s">
+        <v>128</v>
+      </c>
+      <c r="C175" t="s">
+        <v>131</v>
+      </c>
+      <c r="E175" t="s">
+        <v>42</v>
+      </c>
+      <c r="F175" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>34</v>
+      </c>
+      <c r="B176" t="s">
+        <v>128</v>
+      </c>
+      <c r="C176" t="s">
+        <v>131</v>
+      </c>
+      <c r="E176" t="s">
+        <v>42</v>
+      </c>
+      <c r="F176" s="16">
+        <v>542965</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>34</v>
+      </c>
+      <c r="B177" t="s">
+        <v>128</v>
+      </c>
+      <c r="C177" t="s">
+        <v>131</v>
+      </c>
+      <c r="E177" t="s">
+        <v>42</v>
+      </c>
+      <c r="F177" s="16">
+        <v>554570</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>34</v>
+      </c>
+      <c r="B178" t="s">
+        <v>128</v>
+      </c>
+      <c r="C178" t="s">
+        <v>131</v>
+      </c>
+      <c r="E178" t="s">
+        <v>42</v>
+      </c>
+      <c r="F178" s="16">
+        <v>547765</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>34</v>
+      </c>
+      <c r="B179" t="s">
+        <v>137</v>
+      </c>
+      <c r="C179" t="s">
+        <v>138</v>
+      </c>
+      <c r="E179" t="s">
+        <v>42</v>
+      </c>
+      <c r="F179" s="18">
+        <v>549294</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>34</v>
+      </c>
+      <c r="B180" t="s">
+        <v>137</v>
+      </c>
+      <c r="C180" t="s">
+        <v>130</v>
+      </c>
+      <c r="E180" t="s">
+        <v>42</v>
+      </c>
+      <c r="F180" s="18">
+        <v>428462</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>34</v>
+      </c>
+      <c r="B181" t="s">
+        <v>139</v>
+      </c>
+      <c r="C181" t="s">
+        <v>140</v>
+      </c>
+      <c r="E181" t="s">
+        <v>42</v>
+      </c>
+      <c r="F181" s="14">
+        <v>520097</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>34</v>
+      </c>
+      <c r="B182" t="s">
+        <v>139</v>
+      </c>
+      <c r="C182" t="s">
+        <v>140</v>
+      </c>
+      <c r="E182" t="s">
+        <v>42</v>
+      </c>
+      <c r="F182" s="14">
+        <v>522204</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>34</v>
+      </c>
+      <c r="B183" t="s">
+        <v>139</v>
+      </c>
+      <c r="C183" t="s">
+        <v>140</v>
+      </c>
+      <c r="E183" t="s">
+        <v>42</v>
+      </c>
+      <c r="F183" s="14">
+        <v>528956</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>34</v>
+      </c>
+      <c r="B184" t="s">
+        <v>141</v>
+      </c>
+      <c r="C184" t="s">
+        <v>140</v>
+      </c>
+      <c r="E184" t="s">
+        <v>42</v>
+      </c>
+      <c r="F184" s="14">
+        <v>520019</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>34</v>
+      </c>
+      <c r="B185" t="s">
+        <v>141</v>
+      </c>
+      <c r="C185" t="s">
+        <v>140</v>
+      </c>
+      <c r="E185" t="s">
+        <v>42</v>
+      </c>
+      <c r="F185" s="14">
+        <v>512017</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>34</v>
+      </c>
+      <c r="B186" t="s">
+        <v>141</v>
+      </c>
+      <c r="C186" t="s">
+        <v>140</v>
+      </c>
+      <c r="E186" t="s">
+        <v>42</v>
+      </c>
+      <c r="F186" s="14">
+        <v>512117</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>34</v>
+      </c>
+      <c r="B187" t="s">
+        <v>147</v>
+      </c>
+      <c r="C187" t="s">
+        <v>148</v>
+      </c>
+      <c r="E187" t="s">
+        <v>42</v>
+      </c>
+      <c r="F187" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>34</v>
+      </c>
+      <c r="B188" t="s">
+        <v>147</v>
+      </c>
+      <c r="C188" t="s">
+        <v>149</v>
+      </c>
+      <c r="E188" t="s">
+        <v>42</v>
+      </c>
+      <c r="F188" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>34</v>
+      </c>
+      <c r="B189" t="s">
+        <v>147</v>
+      </c>
+      <c r="C189" t="s">
+        <v>149</v>
+      </c>
+      <c r="E189" t="s">
+        <v>42</v>
+      </c>
+      <c r="F189" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>34</v>
+      </c>
+      <c r="B190" t="s">
+        <v>147</v>
+      </c>
+      <c r="C190" t="s">
+        <v>149</v>
+      </c>
+      <c r="E190" t="s">
+        <v>42</v>
+      </c>
+      <c r="F190" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>34</v>
+      </c>
+      <c r="B191" t="s">
+        <v>147</v>
+      </c>
+      <c r="C191" t="s">
+        <v>149</v>
+      </c>
+      <c r="E191" t="s">
+        <v>42</v>
+      </c>
+      <c r="F191" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>34</v>
+      </c>
+      <c r="B192" t="s">
+        <v>147</v>
+      </c>
+      <c r="C192" t="s">
+        <v>150</v>
+      </c>
+      <c r="E192" t="s">
+        <v>42</v>
+      </c>
+      <c r="F192">
+        <v>498521</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>34</v>
+      </c>
+      <c r="B193" t="s">
+        <v>34</v>
+      </c>
+      <c r="C193" t="s">
+        <v>151</v>
+      </c>
+      <c r="E193" t="s">
+        <v>42</v>
+      </c>
+      <c r="F193">
+        <v>374427</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>34</v>
+      </c>
+      <c r="B194" t="s">
+        <v>34</v>
+      </c>
+      <c r="C194" t="s">
+        <v>152</v>
+      </c>
+      <c r="E194" t="s">
+        <v>42</v>
+      </c>
+      <c r="F194">
+        <v>375631</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>34</v>
+      </c>
+      <c r="B195" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195" t="s">
+        <v>48</v>
+      </c>
+      <c r="E195" t="s">
+        <v>42</v>
+      </c>
+      <c r="F195">
+        <v>411222</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>34</v>
+      </c>
+      <c r="B196" t="s">
+        <v>34</v>
+      </c>
+      <c r="C196" t="s">
+        <v>77</v>
+      </c>
+      <c r="E196" t="s">
+        <v>42</v>
+      </c>
+      <c r="F196">
+        <v>432154</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>34</v>
+      </c>
+      <c r="B197" t="s">
+        <v>34</v>
+      </c>
+      <c r="C197" t="s">
+        <v>48</v>
+      </c>
+      <c r="E197" t="s">
+        <v>42</v>
+      </c>
+      <c r="F197">
+        <v>455566</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>34</v>
+      </c>
+      <c r="B198" t="s">
+        <v>34</v>
+      </c>
+      <c r="C198" t="s">
+        <v>48</v>
+      </c>
+      <c r="E198" t="s">
+        <v>42</v>
+      </c>
+      <c r="F198">
+        <v>455567</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>34</v>
+      </c>
+      <c r="B199" t="s">
+        <v>34</v>
+      </c>
+      <c r="C199" t="s">
+        <v>48</v>
+      </c>
+      <c r="E199" t="s">
+        <v>42</v>
+      </c>
+      <c r="F199">
+        <v>455568</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>34</v>
+      </c>
+      <c r="B200" t="s">
+        <v>34</v>
+      </c>
+      <c r="C200" t="s">
+        <v>48</v>
+      </c>
+      <c r="E200" t="s">
+        <v>42</v>
+      </c>
+      <c r="F200">
+        <v>455569</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>34</v>
+      </c>
+      <c r="B201" t="s">
+        <v>34</v>
+      </c>
+      <c r="C201" t="s">
+        <v>48</v>
+      </c>
+      <c r="E201" t="s">
+        <v>42</v>
+      </c>
+      <c r="F201">
+        <v>456507</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>34</v>
+      </c>
+      <c r="B202" t="s">
+        <v>34</v>
+      </c>
+      <c r="C202" t="s">
+        <v>153</v>
+      </c>
+      <c r="E202" t="s">
+        <v>41</v>
+      </c>
+      <c r="F202">
+        <v>489455</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>34</v>
+      </c>
+      <c r="B203" t="s">
+        <v>34</v>
+      </c>
+      <c r="C203" t="s">
+        <v>36</v>
+      </c>
+      <c r="E203" t="s">
+        <v>42</v>
+      </c>
+      <c r="F203">
+        <v>540118</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>34</v>
+      </c>
+      <c r="B204" t="s">
+        <v>34</v>
+      </c>
+      <c r="C204" t="s">
+        <v>154</v>
+      </c>
+      <c r="E204" t="s">
+        <v>42</v>
+      </c>
+      <c r="F204">
+        <v>541865</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>34</v>
+      </c>
+      <c r="B205" t="s">
+        <v>34</v>
+      </c>
+      <c r="C205" t="s">
+        <v>36</v>
+      </c>
+      <c r="E205" t="s">
+        <v>42</v>
+      </c>
+      <c r="F205">
+        <v>543738</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>34</v>
+      </c>
+      <c r="B206" t="s">
+        <v>34</v>
+      </c>
+      <c r="C206" t="s">
+        <v>37</v>
+      </c>
+      <c r="E206" t="s">
+        <v>42</v>
+      </c>
+      <c r="F206">
+        <v>545117</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>34</v>
+      </c>
+      <c r="B207" t="s">
+        <v>34</v>
+      </c>
+      <c r="C207" t="s">
+        <v>37</v>
+      </c>
+      <c r="E207" t="s">
+        <v>42</v>
+      </c>
+      <c r="F207">
+        <v>545771</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>34</v>
+      </c>
+      <c r="B208" t="s">
+        <v>34</v>
+      </c>
+      <c r="C208" t="s">
+        <v>37</v>
+      </c>
+      <c r="E208" t="s">
+        <v>42</v>
+      </c>
+      <c r="F208">
+        <v>545772</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>34</v>
+      </c>
+      <c r="B209" t="s">
+        <v>34</v>
+      </c>
+      <c r="C209" t="s">
+        <v>37</v>
+      </c>
+      <c r="E209" t="s">
+        <v>42</v>
+      </c>
+      <c r="F209">
+        <v>546001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>34</v>
+      </c>
+      <c r="B210" t="s">
+        <v>34</v>
+      </c>
+      <c r="C210" t="s">
+        <v>37</v>
+      </c>
+      <c r="E210" t="s">
+        <v>42</v>
+      </c>
+      <c r="F210">
+        <v>547236</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>34</v>
+      </c>
+      <c r="B211" t="s">
+        <v>34</v>
+      </c>
+      <c r="C211" t="s">
+        <v>36</v>
+      </c>
+      <c r="E211" t="s">
+        <v>42</v>
+      </c>
+      <c r="F211">
+        <v>548935</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/master_BIN.xlsx
+++ b/master_BIN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="162">
   <si>
     <t>CardName</t>
   </si>
@@ -479,13 +479,34 @@
   </si>
   <si>
     <t xml:space="preserve">MASTER  FLEXI   </t>
+  </si>
+  <si>
+    <t>Finans</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Kredi kartı</t>
+  </si>
+  <si>
+    <t>Banka kartı</t>
+  </si>
+  <si>
+    <t>Anadolubank</t>
+  </si>
+  <si>
+    <t>Vakıfbank</t>
+  </si>
+  <si>
+    <t>Yapı Kredi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,13 +576,26 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -576,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -621,6 +655,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="J267" sqref="J267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,6 +971,7 @@
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4783,6 +4821,2526 @@
         <v>548935</v>
       </c>
     </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>155</v>
+      </c>
+      <c r="B212" t="s">
+        <v>155</v>
+      </c>
+      <c r="E212" t="s">
+        <v>41</v>
+      </c>
+      <c r="F212">
+        <v>406386</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>155</v>
+      </c>
+      <c r="B213" t="s">
+        <v>155</v>
+      </c>
+      <c r="E213" t="s">
+        <v>41</v>
+      </c>
+      <c r="F213">
+        <v>415956</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>155</v>
+      </c>
+      <c r="B214" t="s">
+        <v>155</v>
+      </c>
+      <c r="E214" t="s">
+        <v>41</v>
+      </c>
+      <c r="F214">
+        <v>420092</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>155</v>
+      </c>
+      <c r="B215" t="s">
+        <v>155</v>
+      </c>
+      <c r="E215" t="s">
+        <v>41</v>
+      </c>
+      <c r="F215">
+        <v>431379</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>155</v>
+      </c>
+      <c r="B216" t="s">
+        <v>155</v>
+      </c>
+      <c r="E216" t="s">
+        <v>41</v>
+      </c>
+      <c r="F216">
+        <v>459333</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>155</v>
+      </c>
+      <c r="B217" t="s">
+        <v>155</v>
+      </c>
+      <c r="E217" t="s">
+        <v>41</v>
+      </c>
+      <c r="F217">
+        <v>499853</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>155</v>
+      </c>
+      <c r="B218" t="s">
+        <v>155</v>
+      </c>
+      <c r="E218" t="s">
+        <v>41</v>
+      </c>
+      <c r="F218">
+        <v>601050</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>155</v>
+      </c>
+      <c r="B219" t="s">
+        <v>155</v>
+      </c>
+      <c r="E219" t="s">
+        <v>41</v>
+      </c>
+      <c r="F219">
+        <v>677238</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>155</v>
+      </c>
+      <c r="B220" t="s">
+        <v>155</v>
+      </c>
+      <c r="E220" t="s">
+        <v>42</v>
+      </c>
+      <c r="F220">
+        <v>402277</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>155</v>
+      </c>
+      <c r="B221" t="s">
+        <v>155</v>
+      </c>
+      <c r="E221" t="s">
+        <v>42</v>
+      </c>
+      <c r="F221">
+        <v>402278</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>155</v>
+      </c>
+      <c r="B222" t="s">
+        <v>155</v>
+      </c>
+      <c r="E222" t="s">
+        <v>42</v>
+      </c>
+      <c r="F222">
+        <v>402563</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>155</v>
+      </c>
+      <c r="B223" t="s">
+        <v>155</v>
+      </c>
+      <c r="E223" t="s">
+        <v>42</v>
+      </c>
+      <c r="F223">
+        <v>403082</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>155</v>
+      </c>
+      <c r="B224" t="s">
+        <v>155</v>
+      </c>
+      <c r="E224" t="s">
+        <v>42</v>
+      </c>
+      <c r="F224">
+        <v>409364</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>155</v>
+      </c>
+      <c r="B225" t="s">
+        <v>155</v>
+      </c>
+      <c r="E225" t="s">
+        <v>42</v>
+      </c>
+      <c r="F225">
+        <v>410147</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>155</v>
+      </c>
+      <c r="B226" t="s">
+        <v>155</v>
+      </c>
+      <c r="E226" t="s">
+        <v>42</v>
+      </c>
+      <c r="F226">
+        <v>413583</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>155</v>
+      </c>
+      <c r="B227" t="s">
+        <v>155</v>
+      </c>
+      <c r="E227" t="s">
+        <v>42</v>
+      </c>
+      <c r="F227">
+        <v>414388</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>155</v>
+      </c>
+      <c r="B228" t="s">
+        <v>155</v>
+      </c>
+      <c r="E228" t="s">
+        <v>42</v>
+      </c>
+      <c r="F228">
+        <v>415565</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>155</v>
+      </c>
+      <c r="B229" t="s">
+        <v>155</v>
+      </c>
+      <c r="E229" t="s">
+        <v>42</v>
+      </c>
+      <c r="F229">
+        <v>422376</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>155</v>
+      </c>
+      <c r="B230" t="s">
+        <v>155</v>
+      </c>
+      <c r="E230" t="s">
+        <v>42</v>
+      </c>
+      <c r="F230">
+        <v>423277</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>155</v>
+      </c>
+      <c r="B231" t="s">
+        <v>155</v>
+      </c>
+      <c r="E231" t="s">
+        <v>42</v>
+      </c>
+      <c r="F231">
+        <v>423398</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>155</v>
+      </c>
+      <c r="B232" t="s">
+        <v>155</v>
+      </c>
+      <c r="E232" t="s">
+        <v>42</v>
+      </c>
+      <c r="F232">
+        <v>427311</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>155</v>
+      </c>
+      <c r="B233" t="s">
+        <v>155</v>
+      </c>
+      <c r="E233" t="s">
+        <v>42</v>
+      </c>
+      <c r="F233">
+        <v>435653</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>155</v>
+      </c>
+      <c r="B234" t="s">
+        <v>155</v>
+      </c>
+      <c r="E234" t="s">
+        <v>42</v>
+      </c>
+      <c r="F234">
+        <v>441007</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>155</v>
+      </c>
+      <c r="B235" t="s">
+        <v>155</v>
+      </c>
+      <c r="E235" t="s">
+        <v>42</v>
+      </c>
+      <c r="F235">
+        <v>442395</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>155</v>
+      </c>
+      <c r="B236" t="s">
+        <v>155</v>
+      </c>
+      <c r="E236" t="s">
+        <v>42</v>
+      </c>
+      <c r="F236">
+        <v>444029</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>155</v>
+      </c>
+      <c r="B237" t="s">
+        <v>155</v>
+      </c>
+      <c r="E237" t="s">
+        <v>42</v>
+      </c>
+      <c r="F237">
+        <v>459332</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>155</v>
+      </c>
+      <c r="B238" t="s">
+        <v>155</v>
+      </c>
+      <c r="E238" t="s">
+        <v>42</v>
+      </c>
+      <c r="F238">
+        <v>499850</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>155</v>
+      </c>
+      <c r="B239" t="s">
+        <v>155</v>
+      </c>
+      <c r="E239" t="s">
+        <v>42</v>
+      </c>
+      <c r="F239">
+        <v>499851</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>155</v>
+      </c>
+      <c r="B240" t="s">
+        <v>155</v>
+      </c>
+      <c r="E240" t="s">
+        <v>42</v>
+      </c>
+      <c r="F240">
+        <v>499852</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>155</v>
+      </c>
+      <c r="B241" t="s">
+        <v>155</v>
+      </c>
+      <c r="E241" t="s">
+        <v>42</v>
+      </c>
+      <c r="F241">
+        <v>519324</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>155</v>
+      </c>
+      <c r="B242" t="s">
+        <v>155</v>
+      </c>
+      <c r="E242" t="s">
+        <v>42</v>
+      </c>
+      <c r="F242">
+        <v>521022</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>155</v>
+      </c>
+      <c r="B243" t="s">
+        <v>155</v>
+      </c>
+      <c r="E243" t="s">
+        <v>42</v>
+      </c>
+      <c r="F243">
+        <v>521836</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>155</v>
+      </c>
+      <c r="B244" t="s">
+        <v>155</v>
+      </c>
+      <c r="E244" t="s">
+        <v>42</v>
+      </c>
+      <c r="F244">
+        <v>529572</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>155</v>
+      </c>
+      <c r="B245" t="s">
+        <v>155</v>
+      </c>
+      <c r="E245" t="s">
+        <v>42</v>
+      </c>
+      <c r="F245">
+        <v>530818</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>155</v>
+      </c>
+      <c r="B246" t="s">
+        <v>155</v>
+      </c>
+      <c r="E246" t="s">
+        <v>42</v>
+      </c>
+      <c r="F246">
+        <v>531157</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>155</v>
+      </c>
+      <c r="B247" t="s">
+        <v>155</v>
+      </c>
+      <c r="E247" t="s">
+        <v>42</v>
+      </c>
+      <c r="F247">
+        <v>542404</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>155</v>
+      </c>
+      <c r="B248" t="s">
+        <v>155</v>
+      </c>
+      <c r="E248" t="s">
+        <v>42</v>
+      </c>
+      <c r="F248">
+        <v>545120</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>155</v>
+      </c>
+      <c r="B249" t="s">
+        <v>155</v>
+      </c>
+      <c r="E249" t="s">
+        <v>42</v>
+      </c>
+      <c r="F249">
+        <v>545616</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>155</v>
+      </c>
+      <c r="B250" t="s">
+        <v>155</v>
+      </c>
+      <c r="E250" t="s">
+        <v>42</v>
+      </c>
+      <c r="F250">
+        <v>545847</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>155</v>
+      </c>
+      <c r="B251" t="s">
+        <v>155</v>
+      </c>
+      <c r="E251" t="s">
+        <v>42</v>
+      </c>
+      <c r="F251">
+        <v>547567</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>155</v>
+      </c>
+      <c r="B252" t="s">
+        <v>155</v>
+      </c>
+      <c r="E252" t="s">
+        <v>42</v>
+      </c>
+      <c r="F252">
+        <v>547800</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B253" t="s">
+        <v>156</v>
+      </c>
+      <c r="E253" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F253" s="19">
+        <v>450803</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B254" t="s">
+        <v>156</v>
+      </c>
+      <c r="E254" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F254" s="19">
+        <v>454360</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" t="s">
+        <v>156</v>
+      </c>
+      <c r="E255" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F255" s="19">
+        <v>454359</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256" t="s">
+        <v>156</v>
+      </c>
+      <c r="E256" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F256" s="19">
+        <v>454358</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B257" t="s">
+        <v>156</v>
+      </c>
+      <c r="E257" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F257" s="19">
+        <v>540667</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B258" t="s">
+        <v>156</v>
+      </c>
+      <c r="E258" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F258" s="19">
+        <v>540668</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259" t="s">
+        <v>156</v>
+      </c>
+      <c r="E259" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F259" s="19">
+        <v>543771</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" t="s">
+        <v>156</v>
+      </c>
+      <c r="E260" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F260" s="19">
+        <v>552096</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" t="s">
+        <v>156</v>
+      </c>
+      <c r="E261" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F261" s="19">
+        <v>510152</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" t="s">
+        <v>156</v>
+      </c>
+      <c r="E262" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F262" s="19">
+        <v>418342</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263" t="s">
+        <v>156</v>
+      </c>
+      <c r="E263" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F263" s="19">
+        <v>418343</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264" t="s">
+        <v>156</v>
+      </c>
+      <c r="E264" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F264" s="19">
+        <v>418344</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B265" t="s">
+        <v>156</v>
+      </c>
+      <c r="E265" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F265" s="19">
+        <v>418345</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B266" t="s">
+        <v>156</v>
+      </c>
+      <c r="E266" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F266" s="19">
+        <v>414314</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" t="s">
+        <v>156</v>
+      </c>
+      <c r="E267" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F267" s="19">
+        <v>589283</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B268" t="s">
+        <v>156</v>
+      </c>
+      <c r="E268" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F268">
+        <v>444676</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B269" t="s">
+        <v>156</v>
+      </c>
+      <c r="E269" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F269">
+        <v>444677</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B270" t="s">
+        <v>156</v>
+      </c>
+      <c r="E270" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F270">
+        <v>444678</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271" t="s">
+        <v>156</v>
+      </c>
+      <c r="E271" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F271">
+        <v>534981</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>4</v>
+      </c>
+      <c r="B272" t="s">
+        <v>156</v>
+      </c>
+      <c r="E272" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F272">
+        <v>469894</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273" t="s">
+        <v>156</v>
+      </c>
+      <c r="E273" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F273">
+        <v>542374</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B274" t="s">
+        <v>156</v>
+      </c>
+      <c r="E274" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F274">
+        <v>454314</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>4</v>
+      </c>
+      <c r="B275" t="s">
+        <v>156</v>
+      </c>
+      <c r="E275" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F275">
+        <v>589283</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>161</v>
+      </c>
+      <c r="B276" t="s">
+        <v>159</v>
+      </c>
+      <c r="E276" t="s">
+        <v>42</v>
+      </c>
+      <c r="F276">
+        <v>425846</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>161</v>
+      </c>
+      <c r="B277" t="s">
+        <v>159</v>
+      </c>
+      <c r="E277" t="s">
+        <v>42</v>
+      </c>
+      <c r="F277">
+        <v>425847</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>161</v>
+      </c>
+      <c r="B278" t="s">
+        <v>159</v>
+      </c>
+      <c r="E278" t="s">
+        <v>42</v>
+      </c>
+      <c r="F278">
+        <v>425848</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>161</v>
+      </c>
+      <c r="B279" t="s">
+        <v>159</v>
+      </c>
+      <c r="E279" t="s">
+        <v>42</v>
+      </c>
+      <c r="F279">
+        <v>425849</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>161</v>
+      </c>
+      <c r="B280" t="s">
+        <v>159</v>
+      </c>
+      <c r="E280" t="s">
+        <v>42</v>
+      </c>
+      <c r="F280">
+        <v>441341</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>161</v>
+      </c>
+      <c r="B281" t="s">
+        <v>159</v>
+      </c>
+      <c r="E281" t="s">
+        <v>42</v>
+      </c>
+      <c r="F281">
+        <v>522240</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>161</v>
+      </c>
+      <c r="B282" t="s">
+        <v>159</v>
+      </c>
+      <c r="E282" t="s">
+        <v>42</v>
+      </c>
+      <c r="F282">
+        <v>522241</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>161</v>
+      </c>
+      <c r="B283" t="s">
+        <v>159</v>
+      </c>
+      <c r="E283" t="s">
+        <v>42</v>
+      </c>
+      <c r="F283">
+        <v>554301</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>161</v>
+      </c>
+      <c r="B284" t="s">
+        <v>159</v>
+      </c>
+      <c r="E284" t="s">
+        <v>42</v>
+      </c>
+      <c r="F284">
+        <v>558593</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>161</v>
+      </c>
+      <c r="B285" t="s">
+        <v>159</v>
+      </c>
+      <c r="E285" t="s">
+        <v>41</v>
+      </c>
+      <c r="F285">
+        <v>676460</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>161</v>
+      </c>
+      <c r="B286" t="s">
+        <v>160</v>
+      </c>
+      <c r="E286" t="s">
+        <v>42</v>
+      </c>
+      <c r="F286">
+        <v>402940</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>161</v>
+      </c>
+      <c r="B287" t="s">
+        <v>160</v>
+      </c>
+      <c r="E287" t="s">
+        <v>42</v>
+      </c>
+      <c r="F287">
+        <v>409084</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>161</v>
+      </c>
+      <c r="B288" t="s">
+        <v>160</v>
+      </c>
+      <c r="E288" t="s">
+        <v>42</v>
+      </c>
+      <c r="F288">
+        <v>411724</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>161</v>
+      </c>
+      <c r="B289" t="s">
+        <v>160</v>
+      </c>
+      <c r="E289" t="s">
+        <v>42</v>
+      </c>
+      <c r="F289">
+        <v>411942</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>161</v>
+      </c>
+      <c r="B290" t="s">
+        <v>160</v>
+      </c>
+      <c r="E290" t="s">
+        <v>42</v>
+      </c>
+      <c r="F290">
+        <v>411943</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>161</v>
+      </c>
+      <c r="B291" t="s">
+        <v>160</v>
+      </c>
+      <c r="E291" t="s">
+        <v>42</v>
+      </c>
+      <c r="F291">
+        <v>411944</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>161</v>
+      </c>
+      <c r="B292" t="s">
+        <v>160</v>
+      </c>
+      <c r="E292" t="s">
+        <v>42</v>
+      </c>
+      <c r="F292">
+        <v>411979</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>161</v>
+      </c>
+      <c r="B293" t="s">
+        <v>160</v>
+      </c>
+      <c r="E293" t="s">
+        <v>42</v>
+      </c>
+      <c r="F293">
+        <v>415792</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>161</v>
+      </c>
+      <c r="B294" t="s">
+        <v>160</v>
+      </c>
+      <c r="E294" t="s">
+        <v>42</v>
+      </c>
+      <c r="F294">
+        <v>416757</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>161</v>
+      </c>
+      <c r="B295" t="s">
+        <v>160</v>
+      </c>
+      <c r="E295" t="s">
+        <v>42</v>
+      </c>
+      <c r="F295">
+        <v>428945</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>161</v>
+      </c>
+      <c r="B296" t="s">
+        <v>160</v>
+      </c>
+      <c r="E296" t="s">
+        <v>42</v>
+      </c>
+      <c r="F296">
+        <v>442671</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>161</v>
+      </c>
+      <c r="B297" t="s">
+        <v>160</v>
+      </c>
+      <c r="E297" t="s">
+        <v>41</v>
+      </c>
+      <c r="F297">
+        <v>491005</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>161</v>
+      </c>
+      <c r="B298" t="s">
+        <v>160</v>
+      </c>
+      <c r="E298" t="s">
+        <v>42</v>
+      </c>
+      <c r="F298">
+        <v>493840</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>161</v>
+      </c>
+      <c r="B299" t="s">
+        <v>160</v>
+      </c>
+      <c r="E299" t="s">
+        <v>42</v>
+      </c>
+      <c r="F299">
+        <v>493841</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>161</v>
+      </c>
+      <c r="B300" t="s">
+        <v>160</v>
+      </c>
+      <c r="E300" t="s">
+        <v>42</v>
+      </c>
+      <c r="F300">
+        <v>493846</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>161</v>
+      </c>
+      <c r="B301" t="s">
+        <v>160</v>
+      </c>
+      <c r="E301" t="s">
+        <v>42</v>
+      </c>
+      <c r="F301">
+        <v>510162</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>161</v>
+      </c>
+      <c r="B302" t="s">
+        <v>160</v>
+      </c>
+      <c r="E302" t="s">
+        <v>42</v>
+      </c>
+      <c r="F302">
+        <v>510163</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>161</v>
+      </c>
+      <c r="B303" t="s">
+        <v>160</v>
+      </c>
+      <c r="E303" t="s">
+        <v>42</v>
+      </c>
+      <c r="F303">
+        <v>510238</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>161</v>
+      </c>
+      <c r="B304" t="s">
+        <v>160</v>
+      </c>
+      <c r="E304" t="s">
+        <v>42</v>
+      </c>
+      <c r="F304">
+        <v>520017</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>161</v>
+      </c>
+      <c r="B305" t="s">
+        <v>160</v>
+      </c>
+      <c r="E305" t="s">
+        <v>42</v>
+      </c>
+      <c r="F305">
+        <v>540045</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>161</v>
+      </c>
+      <c r="B306" t="s">
+        <v>160</v>
+      </c>
+      <c r="E306" t="s">
+        <v>42</v>
+      </c>
+      <c r="F306">
+        <v>540046</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>161</v>
+      </c>
+      <c r="B307" t="s">
+        <v>160</v>
+      </c>
+      <c r="E307" t="s">
+        <v>42</v>
+      </c>
+      <c r="F307">
+        <v>542119</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>161</v>
+      </c>
+      <c r="B308" t="s">
+        <v>160</v>
+      </c>
+      <c r="E308" t="s">
+        <v>42</v>
+      </c>
+      <c r="F308">
+        <v>542798</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>161</v>
+      </c>
+      <c r="B309" t="s">
+        <v>160</v>
+      </c>
+      <c r="E309" t="s">
+        <v>42</v>
+      </c>
+      <c r="F309">
+        <v>542804</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>161</v>
+      </c>
+      <c r="B310" t="s">
+        <v>160</v>
+      </c>
+      <c r="E310" t="s">
+        <v>42</v>
+      </c>
+      <c r="F310">
+        <v>547244</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>161</v>
+      </c>
+      <c r="B311" t="s">
+        <v>160</v>
+      </c>
+      <c r="E311" t="s">
+        <v>42</v>
+      </c>
+      <c r="F311">
+        <v>552101</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>161</v>
+      </c>
+      <c r="B312" t="s">
+        <v>160</v>
+      </c>
+      <c r="E312" t="s">
+        <v>41</v>
+      </c>
+      <c r="F312">
+        <v>589311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>161</v>
+      </c>
+      <c r="B313" t="s">
+        <v>160</v>
+      </c>
+      <c r="E313" t="s">
+        <v>41</v>
+      </c>
+      <c r="F313">
+        <v>990015</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>161</v>
+      </c>
+      <c r="B314" t="s">
+        <v>107</v>
+      </c>
+      <c r="E314" t="s">
+        <v>42</v>
+      </c>
+      <c r="F314">
+        <v>402458</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>161</v>
+      </c>
+      <c r="B315" t="s">
+        <v>107</v>
+      </c>
+      <c r="E315" t="s">
+        <v>42</v>
+      </c>
+      <c r="F315">
+        <v>402459</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>161</v>
+      </c>
+      <c r="B316" t="s">
+        <v>107</v>
+      </c>
+      <c r="E316" t="s">
+        <v>42</v>
+      </c>
+      <c r="F316">
+        <v>406015</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>161</v>
+      </c>
+      <c r="B317" t="s">
+        <v>107</v>
+      </c>
+      <c r="E317" t="s">
+        <v>42</v>
+      </c>
+      <c r="F317">
+        <v>427707</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>161</v>
+      </c>
+      <c r="B318" t="s">
+        <v>107</v>
+      </c>
+      <c r="E318" t="s">
+        <v>42</v>
+      </c>
+      <c r="F318">
+        <v>440247</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>161</v>
+      </c>
+      <c r="B319" t="s">
+        <v>107</v>
+      </c>
+      <c r="E319" t="s">
+        <v>42</v>
+      </c>
+      <c r="F319">
+        <v>440273</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>161</v>
+      </c>
+      <c r="B320" t="s">
+        <v>107</v>
+      </c>
+      <c r="E320" t="s">
+        <v>41</v>
+      </c>
+      <c r="F320">
+        <v>440274</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>161</v>
+      </c>
+      <c r="B321" t="s">
+        <v>107</v>
+      </c>
+      <c r="E321" t="s">
+        <v>42</v>
+      </c>
+      <c r="F321">
+        <v>440293</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>161</v>
+      </c>
+      <c r="B322" t="s">
+        <v>107</v>
+      </c>
+      <c r="E322" t="s">
+        <v>42</v>
+      </c>
+      <c r="F322">
+        <v>440294</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>161</v>
+      </c>
+      <c r="B323" t="s">
+        <v>107</v>
+      </c>
+      <c r="E323" t="s">
+        <v>42</v>
+      </c>
+      <c r="F323">
+        <v>440295</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>161</v>
+      </c>
+      <c r="B324" t="s">
+        <v>107</v>
+      </c>
+      <c r="E324" t="s">
+        <v>42</v>
+      </c>
+      <c r="F324">
+        <v>459026</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>161</v>
+      </c>
+      <c r="B325" t="s">
+        <v>107</v>
+      </c>
+      <c r="E325" t="s">
+        <v>42</v>
+      </c>
+      <c r="F325">
+        <v>479227</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>161</v>
+      </c>
+      <c r="B326" t="s">
+        <v>107</v>
+      </c>
+      <c r="E326" t="s">
+        <v>42</v>
+      </c>
+      <c r="F326">
+        <v>489494</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>161</v>
+      </c>
+      <c r="B327" t="s">
+        <v>107</v>
+      </c>
+      <c r="E327" t="s">
+        <v>42</v>
+      </c>
+      <c r="F327">
+        <v>489495</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>161</v>
+      </c>
+      <c r="B328" t="s">
+        <v>107</v>
+      </c>
+      <c r="E328" t="s">
+        <v>42</v>
+      </c>
+      <c r="F328">
+        <v>489496</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>161</v>
+      </c>
+      <c r="B329" t="s">
+        <v>107</v>
+      </c>
+      <c r="E329" t="s">
+        <v>42</v>
+      </c>
+      <c r="F329">
+        <v>510138</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>161</v>
+      </c>
+      <c r="B330" t="s">
+        <v>107</v>
+      </c>
+      <c r="E330" t="s">
+        <v>42</v>
+      </c>
+      <c r="F330">
+        <v>510139</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>161</v>
+      </c>
+      <c r="B331" t="s">
+        <v>107</v>
+      </c>
+      <c r="E331" t="s">
+        <v>42</v>
+      </c>
+      <c r="F331">
+        <v>510221</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>161</v>
+      </c>
+      <c r="B332" t="s">
+        <v>107</v>
+      </c>
+      <c r="E332" t="s">
+        <v>42</v>
+      </c>
+      <c r="F332">
+        <v>512753</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>161</v>
+      </c>
+      <c r="B333" t="s">
+        <v>107</v>
+      </c>
+      <c r="E333" t="s">
+        <v>42</v>
+      </c>
+      <c r="F333">
+        <v>512803</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>161</v>
+      </c>
+      <c r="B334" t="s">
+        <v>107</v>
+      </c>
+      <c r="E334" t="s">
+        <v>41</v>
+      </c>
+      <c r="F334">
+        <v>516742</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>161</v>
+      </c>
+      <c r="B335" t="s">
+        <v>107</v>
+      </c>
+      <c r="E335" t="s">
+        <v>42</v>
+      </c>
+      <c r="F335">
+        <v>524346</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>161</v>
+      </c>
+      <c r="B336" t="s">
+        <v>107</v>
+      </c>
+      <c r="E336" t="s">
+        <v>42</v>
+      </c>
+      <c r="F336">
+        <v>524839</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>161</v>
+      </c>
+      <c r="B337" t="s">
+        <v>107</v>
+      </c>
+      <c r="E337" t="s">
+        <v>42</v>
+      </c>
+      <c r="F337">
+        <v>524840</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>161</v>
+      </c>
+      <c r="B338" t="s">
+        <v>107</v>
+      </c>
+      <c r="E338" t="s">
+        <v>42</v>
+      </c>
+      <c r="F338">
+        <v>528920</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>161</v>
+      </c>
+      <c r="B339" t="s">
+        <v>107</v>
+      </c>
+      <c r="E339" t="s">
+        <v>42</v>
+      </c>
+      <c r="F339">
+        <v>530853</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>161</v>
+      </c>
+      <c r="B340" t="s">
+        <v>107</v>
+      </c>
+      <c r="E340" t="s">
+        <v>42</v>
+      </c>
+      <c r="F340">
+        <v>545124</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>161</v>
+      </c>
+      <c r="B341" t="s">
+        <v>107</v>
+      </c>
+      <c r="E341" t="s">
+        <v>42</v>
+      </c>
+      <c r="F341">
+        <v>553090</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>161</v>
+      </c>
+      <c r="B342" t="s">
+        <v>107</v>
+      </c>
+      <c r="E342" t="s">
+        <v>41</v>
+      </c>
+      <c r="F342">
+        <v>676578</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>161</v>
+      </c>
+      <c r="B343" t="s">
+        <v>161</v>
+      </c>
+      <c r="E343" t="s">
+        <v>41</v>
+      </c>
+      <c r="F343">
+        <v>401622</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>161</v>
+      </c>
+      <c r="B344" t="s">
+        <v>161</v>
+      </c>
+      <c r="E344" t="s">
+        <v>42</v>
+      </c>
+      <c r="F344">
+        <v>404809</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>161</v>
+      </c>
+      <c r="B345" t="s">
+        <v>161</v>
+      </c>
+      <c r="E345" t="s">
+        <v>41</v>
+      </c>
+      <c r="F345">
+        <v>406281</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>161</v>
+      </c>
+      <c r="B346" t="s">
+        <v>161</v>
+      </c>
+      <c r="E346" t="s">
+        <v>42</v>
+      </c>
+      <c r="F346">
+        <v>408522</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>161</v>
+      </c>
+      <c r="B347" t="s">
+        <v>161</v>
+      </c>
+      <c r="E347" t="s">
+        <v>41</v>
+      </c>
+      <c r="F347">
+        <v>413382</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>161</v>
+      </c>
+      <c r="B348" t="s">
+        <v>161</v>
+      </c>
+      <c r="E348" t="s">
+        <v>41</v>
+      </c>
+      <c r="F348">
+        <v>414392</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>161</v>
+      </c>
+      <c r="B349" t="s">
+        <v>161</v>
+      </c>
+      <c r="E349" t="s">
+        <v>41</v>
+      </c>
+      <c r="F349">
+        <v>420343</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>161</v>
+      </c>
+      <c r="B350" t="s">
+        <v>161</v>
+      </c>
+      <c r="E350" t="s">
+        <v>41</v>
+      </c>
+      <c r="F350">
+        <v>442106</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>161</v>
+      </c>
+      <c r="B351" t="s">
+        <v>161</v>
+      </c>
+      <c r="E351" t="s">
+        <v>42</v>
+      </c>
+      <c r="F351">
+        <v>444444</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>161</v>
+      </c>
+      <c r="B352" t="s">
+        <v>161</v>
+      </c>
+      <c r="E352" t="s">
+        <v>42</v>
+      </c>
+      <c r="F352">
+        <v>446212</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>161</v>
+      </c>
+      <c r="B353" t="s">
+        <v>161</v>
+      </c>
+      <c r="E353" t="s">
+        <v>42</v>
+      </c>
+      <c r="F353">
+        <v>450634</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>161</v>
+      </c>
+      <c r="B354" t="s">
+        <v>161</v>
+      </c>
+      <c r="E354" t="s">
+        <v>42</v>
+      </c>
+      <c r="F354">
+        <v>455359</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>161</v>
+      </c>
+      <c r="B355" t="s">
+        <v>161</v>
+      </c>
+      <c r="E355" t="s">
+        <v>42</v>
+      </c>
+      <c r="F355">
+        <v>455360</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>161</v>
+      </c>
+      <c r="B356" t="s">
+        <v>161</v>
+      </c>
+      <c r="E356" t="s">
+        <v>42</v>
+      </c>
+      <c r="F356">
+        <v>479794</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>161</v>
+      </c>
+      <c r="B357" t="s">
+        <v>161</v>
+      </c>
+      <c r="E357" t="s">
+        <v>42</v>
+      </c>
+      <c r="F357">
+        <v>479795</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>161</v>
+      </c>
+      <c r="B358" t="s">
+        <v>161</v>
+      </c>
+      <c r="E358" t="s">
+        <v>41</v>
+      </c>
+      <c r="F358">
+        <v>490983</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>161</v>
+      </c>
+      <c r="B359" t="s">
+        <v>161</v>
+      </c>
+      <c r="E359" t="s">
+        <v>42</v>
+      </c>
+      <c r="F359">
+        <v>491205</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>161</v>
+      </c>
+      <c r="B360" t="s">
+        <v>161</v>
+      </c>
+      <c r="E360" t="s">
+        <v>42</v>
+      </c>
+      <c r="F360">
+        <v>492129</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>161</v>
+      </c>
+      <c r="B361" t="s">
+        <v>161</v>
+      </c>
+      <c r="E361" t="s">
+        <v>42</v>
+      </c>
+      <c r="F361">
+        <v>492130</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>161</v>
+      </c>
+      <c r="B362" t="s">
+        <v>161</v>
+      </c>
+      <c r="E362" t="s">
+        <v>42</v>
+      </c>
+      <c r="F362">
+        <v>492131</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>161</v>
+      </c>
+      <c r="B363" t="s">
+        <v>161</v>
+      </c>
+      <c r="E363" t="s">
+        <v>41</v>
+      </c>
+      <c r="F363">
+        <v>494314</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>161</v>
+      </c>
+      <c r="B364" t="s">
+        <v>161</v>
+      </c>
+      <c r="E364" t="s">
+        <v>41</v>
+      </c>
+      <c r="F364">
+        <v>501774</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>161</v>
+      </c>
+      <c r="B365" t="s">
+        <v>161</v>
+      </c>
+      <c r="E365" t="s">
+        <v>42</v>
+      </c>
+      <c r="F365">
+        <v>510054</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>161</v>
+      </c>
+      <c r="B366" t="s">
+        <v>161</v>
+      </c>
+      <c r="E366" t="s">
+        <v>42</v>
+      </c>
+      <c r="F366">
+        <v>540061</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>161</v>
+      </c>
+      <c r="B367" t="s">
+        <v>161</v>
+      </c>
+      <c r="E367" t="s">
+        <v>42</v>
+      </c>
+      <c r="F367">
+        <v>540062</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>161</v>
+      </c>
+      <c r="B368" t="s">
+        <v>161</v>
+      </c>
+      <c r="E368" t="s">
+        <v>42</v>
+      </c>
+      <c r="F368">
+        <v>540063</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>161</v>
+      </c>
+      <c r="B369" t="s">
+        <v>161</v>
+      </c>
+      <c r="E369" t="s">
+        <v>42</v>
+      </c>
+      <c r="F369">
+        <v>540122</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>161</v>
+      </c>
+      <c r="B370" t="s">
+        <v>161</v>
+      </c>
+      <c r="E370" t="s">
+        <v>42</v>
+      </c>
+      <c r="F370">
+        <v>540129</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>161</v>
+      </c>
+      <c r="B371" t="s">
+        <v>161</v>
+      </c>
+      <c r="E371" t="s">
+        <v>42</v>
+      </c>
+      <c r="F371">
+        <v>542117</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>161</v>
+      </c>
+      <c r="B372" t="s">
+        <v>161</v>
+      </c>
+      <c r="E372" t="s">
+        <v>42</v>
+      </c>
+      <c r="F372">
+        <v>545103</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>161</v>
+      </c>
+      <c r="B373" t="s">
+        <v>161</v>
+      </c>
+      <c r="E373" t="s">
+        <v>42</v>
+      </c>
+      <c r="F373">
+        <v>550054</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>161</v>
+      </c>
+      <c r="B374" t="s">
+        <v>161</v>
+      </c>
+      <c r="E374" t="s">
+        <v>42</v>
+      </c>
+      <c r="F374">
+        <v>552645</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>161</v>
+      </c>
+      <c r="B375" t="s">
+        <v>161</v>
+      </c>
+      <c r="E375" t="s">
+        <v>42</v>
+      </c>
+      <c r="F375">
+        <v>552659</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>161</v>
+      </c>
+      <c r="B376" t="s">
+        <v>161</v>
+      </c>
+      <c r="E376" t="s">
+        <v>41</v>
+      </c>
+      <c r="F376">
+        <v>560279</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>161</v>
+      </c>
+      <c r="B377" t="s">
+        <v>161</v>
+      </c>
+      <c r="E377" t="s">
+        <v>41</v>
+      </c>
+      <c r="F377">
+        <v>561056</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>161</v>
+      </c>
+      <c r="B378" t="s">
+        <v>161</v>
+      </c>
+      <c r="E378" t="s">
+        <v>41</v>
+      </c>
+      <c r="F378">
+        <v>588691</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>161</v>
+      </c>
+      <c r="B379" t="s">
+        <v>161</v>
+      </c>
+      <c r="E379" t="s">
+        <v>41</v>
+      </c>
+      <c r="F379">
+        <v>588992</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>161</v>
+      </c>
+      <c r="B380" t="s">
+        <v>161</v>
+      </c>
+      <c r="E380" t="s">
+        <v>41</v>
+      </c>
+      <c r="F380">
+        <v>589117</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>161</v>
+      </c>
+      <c r="B381" t="s">
+        <v>161</v>
+      </c>
+      <c r="E381" t="s">
+        <v>42</v>
+      </c>
+      <c r="F381">
+        <v>601881</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>161</v>
+      </c>
+      <c r="B382" t="s">
+        <v>161</v>
+      </c>
+      <c r="E382" t="s">
+        <v>42</v>
+      </c>
+      <c r="F382">
+        <v>602676</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>161</v>
+      </c>
+      <c r="B383" t="s">
+        <v>161</v>
+      </c>
+      <c r="E383" t="s">
+        <v>42</v>
+      </c>
+      <c r="F383">
+        <v>602678</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>161</v>
+      </c>
+      <c r="B384" t="s">
+        <v>161</v>
+      </c>
+      <c r="E384" t="s">
+        <v>42</v>
+      </c>
+      <c r="F384">
+        <v>602908</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>161</v>
+      </c>
+      <c r="B385" t="s">
+        <v>161</v>
+      </c>
+      <c r="E385" t="s">
+        <v>42</v>
+      </c>
+      <c r="F385">
+        <v>602981</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>161</v>
+      </c>
+      <c r="B386" t="s">
+        <v>161</v>
+      </c>
+      <c r="E386" t="s">
+        <v>42</v>
+      </c>
+      <c r="F386">
+        <v>603098</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>161</v>
+      </c>
+      <c r="B387" t="s">
+        <v>161</v>
+      </c>
+      <c r="E387" t="s">
+        <v>41</v>
+      </c>
+      <c r="F387">
+        <v>603649</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>161</v>
+      </c>
+      <c r="B388" t="s">
+        <v>161</v>
+      </c>
+      <c r="E388" t="s">
+        <v>41</v>
+      </c>
+      <c r="F388">
+        <v>603797</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>161</v>
+      </c>
+      <c r="B389" t="s">
+        <v>161</v>
+      </c>
+      <c r="E389" t="s">
+        <v>41</v>
+      </c>
+      <c r="F389">
+        <v>636689</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>161</v>
+      </c>
+      <c r="B390" t="s">
+        <v>161</v>
+      </c>
+      <c r="E390" t="s">
+        <v>41</v>
+      </c>
+      <c r="F390">
+        <v>639004</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>161</v>
+      </c>
+      <c r="B391" t="s">
+        <v>161</v>
+      </c>
+      <c r="E391" t="s">
+        <v>41</v>
+      </c>
+      <c r="F391">
+        <v>676166</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/master_BIN.xlsx
+++ b/master_BIN.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="-195" windowWidth="17085" windowHeight="11760"/>
+    <workbookView xWindow="3915" yWindow="-195" windowWidth="17085" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MasterList" sheetId="1" r:id="rId1"/>
+    <sheet name="BDDK List" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$391</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterList!$A$1:$H$391</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="261">
   <si>
     <t>CardName</t>
   </si>
@@ -500,6 +501,306 @@
   </si>
   <si>
     <t>CORRECT</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ISSUER  BANK</t>
+  </si>
+  <si>
+    <t>KREDİ KARTI BİNLER</t>
+  </si>
+  <si>
+    <t>BANKA KARTI BİNLER</t>
+  </si>
+  <si>
+    <t>T.C.ZİRAAT BANKASI A.Ş.</t>
+  </si>
+  <si>
+    <t>454671,454672,454673,454674,453955,453956,454894,413226,444676,444677,444678,469884</t>
+  </si>
+  <si>
+    <t>540134,547287,542374,540130,541001,541033,534981</t>
+  </si>
+  <si>
+    <t>T.HALK BANKASI A.Ş.</t>
+  </si>
+  <si>
+    <t>492094,492095,498852,415514</t>
+  </si>
+  <si>
+    <t>447505,440776,415515,421030,499821</t>
+  </si>
+  <si>
+    <t>540435,543081,552879,510056,521378</t>
+  </si>
+  <si>
+    <t>589072,676258,588843,639001,526289,526290</t>
+  </si>
+  <si>
+    <t>T.VAKIFLAR BANKASI T.A.O.</t>
+  </si>
+  <si>
+    <t>493840,493841,493846,409084,411724,411944,411942,411943,416757,402940,411979,428945,415792,442671</t>
+  </si>
+  <si>
+    <t>540045,540046,542119,547244,542798,542804,552101,520017</t>
+  </si>
+  <si>
+    <t>TÜRK EKONOMİ BANKASI A.Ş.</t>
+  </si>
+  <si>
+    <t>440293,440294,427707,479227,406015,440247,440273,402458,402459,489494,489495,489496,459026</t>
+  </si>
+  <si>
+    <t>440295,440274,402142,447503,404315</t>
+  </si>
+  <si>
+    <t>510138,510139,545124,510221,530853,512803,524839,524840,528920,553090,512753,524346</t>
+  </si>
+  <si>
+    <t>676578,606329,676406</t>
+  </si>
+  <si>
+    <t>AKBANK T.A.Ş.</t>
+  </si>
+  <si>
+    <t>435508,435509,413252,432071,432072,425669</t>
+  </si>
+  <si>
+    <t>557113,557829,552608,552609,521807,520932,512754,524347,553056</t>
+  </si>
+  <si>
+    <t>ŞEKERBANK T.A.Ş. (4)(5)(6)(7)</t>
+  </si>
+  <si>
+    <t>494063,494064,433383,433384,403836,411156,411157,411158,411159</t>
+  </si>
+  <si>
+    <t>423833,459068,489401</t>
+  </si>
+  <si>
+    <t>525404,539703,521827,549208,530866,521394,547311</t>
+  </si>
+  <si>
+    <t>T.GARANTİ BANKASI A.Ş.</t>
+  </si>
+  <si>
+    <t>492186,492187,492193,490175,493845,427314,427315,403280,448472,403666,467293,467294,467295,461668,474151,404308,487074,487075,413836,428220,428221,432154,426886,426887,426888,486567,462274,482489,482490,482491,489478</t>
+  </si>
+  <si>
+    <t>401738,405051,410141,405090,426889,409219,420556,420557,489455</t>
+  </si>
+  <si>
+    <t>540036,540037,542030,540226,540227,545102,554960,554796,552095,557023,544078,558699,540669,540709,521824,521825,521832,520922,520940,520988,528939,553130,514915,541865,521368,557945,534261,546001,547302,520097,522204,528956,533169,543738,548935,540118</t>
+  </si>
+  <si>
+    <t>589318,676283,676255,676827,676651,517040,517041,517042,670606,517048,517049</t>
+  </si>
+  <si>
+    <t>T.  İŞ BANKASI A.Ş.</t>
+  </si>
+  <si>
+    <t>450803,454318,454358,454359,454360,418342,418343,418344,418345</t>
+  </si>
+  <si>
+    <t>454314,441075,441076,441077</t>
+  </si>
+  <si>
+    <t>540667,540668,543771,552096,553058,510152</t>
+  </si>
+  <si>
+    <t>589283, 603125</t>
+  </si>
+  <si>
+    <t>YAPI VE KREDİ BANKASI A.Ş.</t>
+  </si>
+  <si>
+    <t>479794,479795,492128,450634,492130,492131,455359,491205,491206,404809,446212</t>
+  </si>
+  <si>
+    <t>494314,401622,490983,413382,414392,442106</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>542117,540061,540062,540063,545103,540122,540129,510054,552659,552645</t>
+  </si>
+  <si>
+    <t>639004,603797,676166</t>
+  </si>
+  <si>
+    <t>450918,455645,427308,438040</t>
+  </si>
+  <si>
+    <t>(FORTIS BANK A.Ş.)</t>
+  </si>
+  <si>
+    <t>549998,550449,552207,545148,525314,542259,547985</t>
+  </si>
+  <si>
+    <t>CITIBANK A.Ş.</t>
+  </si>
+  <si>
+    <t>426391,426392,450050,450051</t>
+  </si>
+  <si>
+    <t>544445,544460,521376,544127,549220,547712,547161,531245,530597</t>
+  </si>
+  <si>
+    <t>TURKISH BANK A.Ş. (1)(2)</t>
+  </si>
+  <si>
+    <t>529939,518599,552098</t>
+  </si>
+  <si>
+    <t>589288, 677522</t>
+  </si>
+  <si>
+    <t>ING BANK A.Ş.</t>
+  </si>
+  <si>
+    <t>455571,490805,490806,490807,414070,408579,420322,420323,420324,480296,400684</t>
+  </si>
+  <si>
+    <t>540024,540025,542029,548819,554297,542605,510151,547765,542965,542967,554570,532443,550074</t>
+  </si>
+  <si>
+    <t>FIBABANKA A.Ş. (1)(5)(6)</t>
+  </si>
+  <si>
+    <t>534913,543624,518679</t>
+  </si>
+  <si>
+    <t>TURKLAND BANK A.Ş.</t>
+  </si>
+  <si>
+    <t>TEKSTİL BANKASI A.Ş.</t>
+  </si>
+  <si>
+    <t>456057,456059,413729,413972</t>
+  </si>
+  <si>
+    <t>545769,545770,514025</t>
+  </si>
+  <si>
+    <t>FİNANS BANK A.Ş.</t>
+  </si>
+  <si>
+    <t>402277,402278,413583,415565,423398,423277,414388,422376,427311,435653,402563,409364,410147,444029,441007,403082,499850,499851,499852,442395</t>
+  </si>
+  <si>
+    <t>415956,406386,431379,420092,499853</t>
+  </si>
+  <si>
+    <t>545616,545847,547800,545120,521022,521836,519324,547567,531157,529572,530818,542404</t>
+  </si>
+  <si>
+    <t>HSBC BANK A.Ş.</t>
+  </si>
+  <si>
+    <t>405917,405918,424909,409071,405913,428240,422629,496019</t>
+  </si>
+  <si>
+    <t>550472,550473,510005,552143,525413,542254,556030,556031,556033,556034,522054,521045,545183,519399,525795,556665,512651,540643</t>
+  </si>
+  <si>
+    <t>ALTERNATİF BANK A.Ş. (1) (2)</t>
+  </si>
+  <si>
+    <t>466280,466281,466282,466283</t>
+  </si>
+  <si>
+    <t>542221,544836,516458,558485</t>
+  </si>
+  <si>
+    <t>EUROBANK TEKFEN A.Ş. (3)(4)(5)(6)</t>
+  </si>
+  <si>
+    <t>498516,498517,498518,498519,498520,498521</t>
+  </si>
+  <si>
+    <t>DENİZBANK A.Ş.</t>
+  </si>
+  <si>
+    <t>460345,460347,408625,403134,441139,409070,411924,424360,424361,423667,462276,489456,472914,489457,489458</t>
+  </si>
+  <si>
+    <t>543358,543427,543400,554483,558514,510063,510118,510119,520019,520303,514924,512017,512117,546764,558443,558446,558448,558460,552679,546764</t>
+  </si>
+  <si>
+    <t>601912,517047,516731,670610</t>
+  </si>
+  <si>
+    <t>ANADOLUBANK A.Ş.</t>
+  </si>
+  <si>
+    <t>425846,425847,425848,441341</t>
+  </si>
+  <si>
+    <t>522240,522241,558593,554301</t>
+  </si>
+  <si>
+    <t>AKTİF YATIRIM BANKASI A.Ş.</t>
+  </si>
+  <si>
+    <t>ALBARAKA TÜRK</t>
+  </si>
+  <si>
+    <t>417715,432284,432285</t>
+  </si>
+  <si>
+    <t>KATILIM BANKASI A.Ş. (1)(5)(6)</t>
+  </si>
+  <si>
+    <t>534264,548232,547234</t>
+  </si>
+  <si>
+    <t>KUVEYT TÜRK KATILIM</t>
+  </si>
+  <si>
+    <t>402589,402590,402592,403810,403360,410555,410556,431024</t>
+  </si>
+  <si>
+    <t>BANKASI A.Ş.</t>
+  </si>
+  <si>
+    <t>512595,518896,520180,547564,525312,511660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TÜRKİYE FİNANS </t>
+  </si>
+  <si>
+    <t>435627,435628,411685,404952,428462</t>
+  </si>
+  <si>
+    <t>KATILIM BANKASI A.Ş.</t>
+  </si>
+  <si>
+    <t>549294,537719,521848</t>
+  </si>
+  <si>
+    <t>ASYA KATILIM BANKASI A.Ş.</t>
+  </si>
+  <si>
+    <t>402275,402276,416987,402280,441033,477206</t>
+  </si>
+  <si>
+    <t>515849,527585,524384,531334,552529,529462,547799</t>
+  </si>
+  <si>
+    <t>PROVUS BİLİŞİM HİZMETLERİ A.Ş.</t>
+  </si>
+  <si>
+    <t>404990(*)</t>
+  </si>
+  <si>
+    <t>520909(*),512446(*),515865(*),539605(*),549938(*),554566(*)</t>
+  </si>
+  <si>
+    <t>516742 (**),677047(*)</t>
   </si>
 </sst>
 </file>
@@ -1023,9 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11317,4 +11616,611 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2">
+        <v>447504.40781399998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3">
+        <v>676123.67612399999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6">
+        <v>15.491004999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7">
+        <v>589311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11">
+        <v>589004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13">
+        <v>589713.67683200003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23">
+        <v>508129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26">
+        <v>490808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27">
+        <v>676402.60332200001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29">
+        <v>603343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>603005.67642899998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32">
+        <v>445988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33">
+        <v>589416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>225</v>
+      </c>
+      <c r="E35">
+        <v>601050.67723799997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36">
+        <v>405919.40590299998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E37">
+        <v>676401.67719299998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38">
+        <v>466284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39">
+        <v>627768.67067000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40">
+        <v>414941</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>589298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>134</v>
+      </c>
+      <c r="B42" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" t="s">
+        <v>235</v>
+      </c>
+      <c r="E42">
+        <v>460346.46557399997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>135</v>
+      </c>
+      <c r="B44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44">
+        <v>425849</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>240</v>
+      </c>
+      <c r="E45">
+        <v>603072.67645999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>203</v>
+      </c>
+      <c r="B48" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" t="s">
+        <v>243</v>
+      </c>
+      <c r="E48">
+        <v>417716</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" t="s">
+        <v>245</v>
+      </c>
+      <c r="E49">
+        <v>627510.67739700002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>205</v>
+      </c>
+      <c r="B50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" t="s">
+        <v>247</v>
+      </c>
+      <c r="E50">
+        <v>402591</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51">
+        <v>677055</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>206</v>
+      </c>
+      <c r="B52" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" t="s">
+        <v>251</v>
+      </c>
+      <c r="E52">
+        <v>435629</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53">
+        <v>627161.67745099997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>208</v>
+      </c>
+      <c r="B54" t="s">
+        <v>254</v>
+      </c>
+      <c r="D54" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54">
+        <v>407381.40711199999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55">
+        <v>627462.67713099997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>900</v>
+      </c>
+      <c r="B56" t="s">
+        <v>257</v>
+      </c>
+      <c r="E56" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>259</v>
+      </c>
+      <c r="E57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/master_BIN.xlsx
+++ b/master_BIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="-195" windowWidth="17085" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="3915" yWindow="-195" windowWidth="17085" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="MasterList" sheetId="1" r:id="rId1"/>
@@ -1324,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I391"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11622,7 +11622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E57"/>
     </sheetView>
   </sheetViews>
